--- a/fullStackProject/src/main/resources/files/studentData.xlsx
+++ b/fullStackProject/src/main/resources/files/studentData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Student ID</t>
   </si>
@@ -32,6 +32,27 @@
     <t>Department</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>123 main st</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
     <t>sudeep</t>
   </si>
   <si>
@@ -41,7 +62,34 @@
     <t>123 timber trl</t>
   </si>
   <si>
-    <t>science</t>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>karma</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>nepal</t>
+  </si>
+  <si>
+    <t>Cooking</t>
   </si>
 </sst>
 </file>
@@ -86,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,7 +162,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>6</v>
@@ -123,13 +171,113 @@
         <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>8</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
